--- a/xls/quest.xlsx
+++ b/xls/quest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="tw" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,27 +45,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"gold":50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"gold":100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gold":50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gold":50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gold":100</t>
+    <t>殺死半獸人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺死郊區的半獸人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺死野狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺死郊區的野狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"kill","id":"orc"},
+{"type":"talk","id":"smith","cond":[0]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +121,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體 Light"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,9 +152,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,59 +456,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" ht="31.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -477,14 +531,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,18 +561,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -527,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/xls/quest.xlsx
+++ b/xls/quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rewards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>q01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,7 +94,15 @@
   </si>
   <si>
     <t>{"type":"kill","id":"orc"},
-{"type":"talk","id":"smith","cond":[0]}</t>
+{"type":"final","des":"跟 smith 回報"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"gold","count":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"gold","count":50}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,16 +463,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -486,12 +490,12 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -500,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -511,13 +515,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/xls/quest.xlsx
+++ b/xls/quest.xlsx
@@ -98,11 +98,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"type":"gold","count":100},
+{"type":"item","id":"helmet_01","count":2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"type":"gold","count":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"gold","count":50}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -471,8 +472,8 @@
     <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="68.88671875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -506,7 +507,7 @@
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/xls/quest.xlsx
+++ b/xls/quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,11 +90,6 @@
   </si>
   <si>
     <t>殺死郊區的野狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"kill","id":"orc"},
-{"type":"final","des":"跟 smith 回報"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,6 +99,19 @@
   </si>
   <si>
     <t>{"type":"gold","count":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺死盜賊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺死郊區的盜賊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"kill","id":"rogue","count":3},
+{"type":"final","des":"跟 musk 回報"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +472,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -499,16 +507,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -522,7 +530,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/xls/quest.xlsx
+++ b/xls/quest.xlsx
@@ -110,7 +110,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"type":"kill","id":"rogue","count":3},
+    <t>{"type":"kill","id":"rogue","count":1},
 {"type":"final","des":"跟 musk 回報"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>

--- a/xls/quest.xlsx
+++ b/xls/quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   <si>
     <t>{"type":"kill","id":"rogue","count":1},
 {"type":"final","des":"跟 musk 回報"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -480,12 +488,13 @@
     <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="68.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -496,13 +505,16 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.2">
+    <row r="2" spans="1:6" ht="31.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -512,14 +524,17 @@
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -529,7 +544,7 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/xls/quest.xlsx
+++ b/xls/quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,24 +98,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>殺死盜賊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>殺死郊區的盜賊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"kill","id":"rogue","count":1},
+    <t>nid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近有一群盜賊盤踞在北方森林，他們襲擊路過的商隊與村民。
+請前往森林深處，消滅盜賊首領，恢復森林的安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林中的盜賊威脅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"kill","id":"rogue","count":3},
 {"type":"final","des":"跟 musk 回報"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest-01</t>
+    <t>musk_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musk_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,14 +485,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="68.88671875" style="1" customWidth="1"/>
@@ -505,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -514,38 +519,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.2">
+    <row r="2" spans="1:6" ht="78">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/xls/quest.xlsx
+++ b/xls/quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,51 @@
   </si>
   <si>
     <t>musk_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melanie_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"kill","id":"rogue","count":3},
+{"type":"final","des":"跟 melanie 回報"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"kill","id":"rogue","count":3},
+{"type":"final","des":"跟 trump 回報"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"kill","id":"rogue","count":3},
+{"type":"final","des":"跟 karen 回報"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"kill","id":"rogue","count":3},
+{"type":"final","des":"跟 xi 回報"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macron_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"kill","id":"rogue","count":3},
+{"type":"final","des":"跟 macron 回報"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,17 +527,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="68.88671875" style="1" customWidth="1"/>
@@ -519,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="78">
+    <row r="2" spans="1:6" ht="62.4">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -551,6 +596,106 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="62.4">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="62.4">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="62.4">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="62.4">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="62.4">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
